--- a/User.xlsx
+++ b/User.xlsx
@@ -1,33 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\AomSoftwareProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\SoftwareProjectFrameUser\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AF5CB8-E67E-47C7-AFD5-8E981E7EA8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="11390" windowWidth="17280" xWindow="490" yWindow="850"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="info" r:id="rId1" sheetId="1"/>
-    <sheet name="คำสั่งซื้อ" r:id="rId2" sheetId="2"/>
+    <sheet name="info" sheetId="1" r:id="rId1"/>
+    <sheet name="คำสั่งซื้อ" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -351,8 +343,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,19 +371,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -409,10 +400,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -447,7 +438,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -499,7 +490,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -610,21 +601,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -641,7 +632,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -693,29 +684,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="17.36328125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="29.54296875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="29.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -735,7 +726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -755,7 +746,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -775,7 +766,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -795,7 +786,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -815,7 +806,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -835,7 +826,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -855,7 +846,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -875,7 +866,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -895,7 +886,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -915,7 +906,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -935,7 +926,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -955,7 +946,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -975,7 +966,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -995,7 +986,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -1015,7 +1006,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -1035,7 +1026,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -1056,28 +1047,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.90625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="53.08984375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="12.7265625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="13.08984375" collapsed="false"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="53.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>96</v>
       </c>
@@ -1092,6 +1083,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/User.xlsx
+++ b/User.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\AomSoftwareProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\lastTestSoftwareProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="11390" windowWidth="17280" xWindow="490" yWindow="850"/>
+    <workbookView xWindow="490" yWindow="850" windowWidth="17280" windowHeight="11390" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="info" r:id="rId1" sheetId="1"/>
-    <sheet name="คำสั่งซื้อ" r:id="rId2" sheetId="2"/>
+    <sheet name="info" sheetId="1" r:id="rId1"/>
+    <sheet name="คำสั่งซื้อ" sheetId="2" r:id="rId2"/>
+    <sheet name="ตะกร้า" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="113">
   <si>
     <t>Username</t>
   </si>
@@ -364,13 +365,21 @@
   </si>
   <si>
     <t>Anong123</t>
+  </si>
+  <si>
+    <t>ชนิดสินค้า</t>
+  </si>
+  <si>
+    <t>จำนวนชิ้น</t>
+  </si>
+  <si>
+    <t>ราคา</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -398,19 +407,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -427,10 +436,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -465,7 +474,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -517,7 +526,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -628,21 +637,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -659,7 +668,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -711,15 +720,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
@@ -727,10 +736,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="17.36328125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="29.54296875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="3" max="3" width="17.36328125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="29.54296875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.6328125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -1053,7 +1062,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -1073,7 +1082,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -1093,7 +1102,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>108</v>
       </c>
@@ -1114,25 +1123,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.90625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="53.08984375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.7265625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="1" max="1" width="11.90625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="53.08984375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.08984375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -1150,6 +1159,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>